--- a/pred_ohlcv/54_21/2020-01-16 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 RNT ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>66227.43173955668</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3391.203739556673</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3447.203739556673</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3447.203739556673</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-88535.88326044333</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-330963.5174604433</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-334783.5174604433</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-382075.7118604432</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-445669.7520604432</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-445565.7520604432</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-450500.7520604432</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-445513.7520604432</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-485866.9445604432</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-551605.7769604432</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-803140.5241604431</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-803088.5241604431</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-803088.5241604431</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-803088.5241604431</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-803088.5241604431</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-803036.0696604431</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-749328.0033604432</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-443097.3594604431</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-443392.5662604431</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-443953.3175604431</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-444633.3205604432</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>506556.3030373096</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>527100.1377373096</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>507330.1377373096</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>506705.1377373096</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>503248.3876373096</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>503308.3876373096</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>177697.6959373095</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 RNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>66755.75173955667</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>66755.75173955667</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>84238.41173955667</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>84238.41173955667</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>66227.43173955668</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3391.203739556673</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3447.203739556673</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3447.203739556673</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-88535.88326044333</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-88483.70146044332</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-450818.7002604433</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-488481.9728604433</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-330963.5174604433</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-334783.5174604433</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-382075.7118604432</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-445669.7520604432</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-445565.7520604432</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-450500.7520604432</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-445513.7520604432</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-485866.9445604432</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-551605.7769604432</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-551605.7769604432</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-551605.7769604432</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-803088.5241604431</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-803036.0696604431</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-749328.0033604432</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-734292.8443604432</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-252178.2833604432</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-443097.3594604431</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-443392.5662604431</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-443953.3175604431</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>407109.2576373096</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>527100.1377373096</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>527100.1377373096</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>507330.1377373096</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
